--- a/251218_홍콩 KTU 프로젝트 진행사항.xlsx
+++ b/251218_홍콩 KTU 프로젝트 진행사항.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/GIC_DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE47AB-236A-944C-9421-4BE421556BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B03244-91F7-D444-AEBC-95F372743940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1420" windowWidth="30240" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,6 +820,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,18 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1147,7 @@
   <dimension ref="B1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1171,90 +1171,90 @@
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="38"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="42"/>
     </row>
     <row r="3" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="41" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="41" t="s">
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="39"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="Z4" s="14">
         <v>20</v>
       </c>
-      <c r="AA4" s="40"/>
+      <c r="AA4" s="44"/>
     </row>
     <row r="5" spans="2:27" s="1" customFormat="1" ht="53" customHeight="1">
       <c r="B5" s="17" t="s">
@@ -1429,7 +1429,7 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="2:27" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1441,7 +1441,7 @@
       <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3"/>
@@ -1467,7 +1467,7 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:27" s="1" customFormat="1" ht="37" customHeight="1">
-      <c r="B9" s="48"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1501,7 +1501,7 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="2:27" s="1" customFormat="1" ht="34" customHeight="1">
-      <c r="B10" s="48"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="48"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1569,7 +1569,7 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="2:27">
-      <c r="B12" s="48"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1603,7 +1603,7 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="48"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1818,6 +1818,11 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="5"/>
     </row>
+    <row r="21" spans="2:27">
+      <c r="B21" s="16">
+        <v>99999999</v>
+      </c>
+    </row>
     <row r="23" spans="2:27">
       <c r="C23" s="16" t="s">
         <v>47</v>
@@ -1825,11 +1830,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="G3:J3"/>
@@ -1839,6 +1839,11 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/251218_홍콩 KTU 프로젝트 진행사항.xlsx
+++ b/251218_홍콩 KTU 프로젝트 진행사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B03244-91F7-D444-AEBC-95F372743940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951925A7-4DE4-6F44-8304-B02F34070501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1420" windowWidth="30240" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,6 +820,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,36 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05795800-9382-4FB2-95C8-F7C086FF31D9}">
-  <dimension ref="B1:AA23"/>
+  <dimension ref="B1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1171,90 +1171,90 @@
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="42"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="45" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="45" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="45" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="45" t="s">
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="43"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="39"/>
     </row>
     <row r="4" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="Z4" s="14">
         <v>20</v>
       </c>
-      <c r="AA4" s="44"/>
+      <c r="AA4" s="40"/>
     </row>
     <row r="5" spans="2:27" s="1" customFormat="1" ht="53" customHeight="1">
       <c r="B5" s="17" t="s">
@@ -1429,7 +1429,7 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="2:27" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1441,7 +1441,7 @@
       <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3"/>
@@ -1467,7 +1467,7 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:27" s="1" customFormat="1" ht="37" customHeight="1">
-      <c r="B9" s="38"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1501,7 +1501,7 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="2:27" s="1" customFormat="1" ht="34" customHeight="1">
-      <c r="B10" s="38"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="38"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1569,7 +1569,7 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="2:27">
-      <c r="B12" s="38"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1603,7 +1603,7 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1828,8 +1828,18 @@
         <v>47</v>
       </c>
     </row>
+    <row r="25" spans="2:27">
+      <c r="B25" s="16">
+        <v>66666</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="G3:J3"/>
@@ -1839,11 +1849,6 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/251218_홍콩 KTU 프로젝트 진행사항.xlsx
+++ b/251218_홍콩 KTU 프로젝트 진행사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951925A7-4DE4-6F44-8304-B02F34070501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2AAE9-B634-B441-9631-199B627C3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1420" windowWidth="30240" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,6 +820,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,18 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05795800-9382-4FB2-95C8-F7C086FF31D9}">
-  <dimension ref="B1:AA25"/>
+  <dimension ref="B1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1171,90 +1171,90 @@
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="38"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="42"/>
     </row>
     <row r="3" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="41" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="41" t="s">
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="39"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="Z4" s="14">
         <v>20</v>
       </c>
-      <c r="AA4" s="40"/>
+      <c r="AA4" s="44"/>
     </row>
     <row r="5" spans="2:27" s="1" customFormat="1" ht="53" customHeight="1">
       <c r="B5" s="17" t="s">
@@ -1429,7 +1429,7 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="2:27" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1441,7 +1441,7 @@
       <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3"/>
@@ -1467,7 +1467,7 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:27" s="1" customFormat="1" ht="37" customHeight="1">
-      <c r="B9" s="48"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1501,7 +1501,7 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="2:27" s="1" customFormat="1" ht="34" customHeight="1">
-      <c r="B10" s="48"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="48"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1569,7 +1569,7 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="2:27">
-      <c r="B12" s="48"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1603,7 +1603,7 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="48"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1833,13 +1833,13 @@
         <v>66666</v>
       </c>
     </row>
+    <row r="27" spans="2:27">
+      <c r="B27" s="16">
+        <v>9999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="G3:J3"/>
@@ -1849,6 +1849,11 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/251218_홍콩 KTU 프로젝트 진행사항.xlsx
+++ b/251218_홍콩 KTU 프로젝트 진행사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2AAE9-B634-B441-9631-199B627C3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD913127-24FE-6B4D-BB4A-CEE380F02043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1420" windowWidth="30240" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,6 +820,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,36 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05795800-9382-4FB2-95C8-F7C086FF31D9}">
-  <dimension ref="B1:AA27"/>
+  <dimension ref="B1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1171,90 +1171,90 @@
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="49" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="42"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="45" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="45" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="45" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="45" t="s">
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="43"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="39"/>
     </row>
     <row r="4" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="Z4" s="14">
         <v>20</v>
       </c>
-      <c r="AA4" s="44"/>
+      <c r="AA4" s="40"/>
     </row>
     <row r="5" spans="2:27" s="1" customFormat="1" ht="53" customHeight="1">
       <c r="B5" s="17" t="s">
@@ -1429,7 +1429,7 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="2:27" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1441,7 +1441,7 @@
       <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3"/>
@@ -1467,7 +1467,7 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:27" s="1" customFormat="1" ht="37" customHeight="1">
-      <c r="B9" s="38"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1501,7 +1501,7 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="2:27" s="1" customFormat="1" ht="34" customHeight="1">
-      <c r="B10" s="38"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="38"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1569,7 +1569,7 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="2:27">
-      <c r="B12" s="38"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1603,7 +1603,7 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="38"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1838,8 +1838,18 @@
         <v>9999</v>
       </c>
     </row>
+    <row r="29" spans="2:27">
+      <c r="B29" s="16">
+        <v>909</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="G3:J3"/>
@@ -1849,11 +1859,6 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/251218_홍콩 KTU 프로젝트 진행사항.xlsx
+++ b/251218_홍콩 KTU 프로젝트 진행사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD913127-24FE-6B4D-BB4A-CEE380F02043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7286BC-09AF-0541-B0AF-433DFA5F51BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1420" windowWidth="30240" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>월</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>ㄹㅇㄴㄹㅇㄴㅁㄹ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDS TEST</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -820,6 +824,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,18 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05795800-9382-4FB2-95C8-F7C086FF31D9}">
-  <dimension ref="B1:AA29"/>
+  <dimension ref="B1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1171,90 +1175,90 @@
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="38"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="42"/>
     </row>
     <row r="3" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="41" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="41" t="s">
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="39"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="2:27" s="10" customFormat="1" ht="23.5" customHeight="1">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1322,7 @@
       <c r="Z4" s="14">
         <v>20</v>
       </c>
-      <c r="AA4" s="40"/>
+      <c r="AA4" s="44"/>
     </row>
     <row r="5" spans="2:27" s="1" customFormat="1" ht="53" customHeight="1">
       <c r="B5" s="17" t="s">
@@ -1429,7 +1433,7 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="2:27" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1441,7 +1445,7 @@
       <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3"/>
@@ -1467,7 +1471,7 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:27" s="1" customFormat="1" ht="37" customHeight="1">
-      <c r="B9" s="48"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1481,7 @@
       <c r="E9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1501,7 +1505,7 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="2:27" s="1" customFormat="1" ht="34" customHeight="1">
-      <c r="B10" s="48"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1515,7 @@
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1535,7 +1539,7 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="48"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1549,7 @@
       <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1569,7 +1573,7 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="2:27">
-      <c r="B12" s="48"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1583,7 @@
       <c r="E12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1603,7 +1607,7 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="48"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1613,7 +1617,7 @@
       <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1843,13 +1847,13 @@
         <v>909</v>
       </c>
     </row>
+    <row r="30" spans="2:27">
+      <c r="C30" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="G3:J3"/>
@@ -1859,6 +1863,11 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
